--- a/Baswapuram_LabExam03Grading.xlsx
+++ b/Baswapuram_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Desktop\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>Author notation</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t xml:space="preserve">Duduct full marks for </t>
+  </si>
+  <si>
+    <t>(-2)For not initializing hash map.</t>
+  </si>
+  <si>
+    <t>(-2)For not writing getter method.</t>
+  </si>
+  <si>
+    <t>(-3)For not passing 3 test cases.</t>
   </si>
 </sst>
 </file>
@@ -396,7 +405,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -408,19 +429,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -533,6 +542,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -540,15 +558,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1220,7 +1229,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table62" displayName="Table62" ref="A33:F34" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table62" displayName="Table62" ref="A33:F34" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A33:F34"/>
   <tableColumns count="6">
     <tableColumn id="1" name="S. No" dataDxfId="4"/>
@@ -1499,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,14 +1523,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1602,11 +1611,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1618,14 +1627,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1720,11 +1729,11 @@
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1736,14 +1745,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1778,8 +1787,12 @@
       <c r="D18" s="2">
         <v>2</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="13"/>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -1792,8 +1805,12 @@
       <c r="D19" s="2">
         <v>2</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="13"/>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
@@ -1808,7 +1825,9 @@
       <c r="D20" s="2">
         <v>10</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2">
+        <v>10</v>
+      </c>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1886,34 +1905,36 @@
       <c r="D25" s="18">
         <v>2</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="18">
+        <v>2</v>
+      </c>
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -1949,7 +1970,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="32"/>
+      <c r="F29" s="24"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
@@ -1968,11 +1989,11 @@
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -1984,14 +2005,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2026,34 +2047,38 @@
       <c r="D34" s="2">
         <v>7</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="13"/>
+      <c r="E34" s="2">
+        <v>4</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
       </c>
       <c r="E35" s="6">
         <f>SUM(E34)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2074,23 +2099,28 @@
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2098,11 +2128,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Baswapuram_LabExam03Grading.xlsx
+++ b/Baswapuram_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Desktop\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>Author notation</t>
   </si>
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t>(-3)For not passing 3 test cases.</t>
+  </si>
+  <si>
+    <t>For partial scanning of data from input file</t>
+  </si>
+  <si>
+    <t>For no output</t>
+  </si>
+  <si>
+    <t>For compilation errors</t>
   </si>
 </sst>
 </file>
@@ -408,6 +417,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -418,18 +439,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1508,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,14 +1532,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1611,11 +1620,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1627,14 +1636,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1729,11 +1738,11 @@
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1745,14 +1754,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1911,11 +1920,11 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
@@ -1927,14 +1936,14 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -1969,8 +1978,12 @@
       <c r="D29" s="2">
         <v>16</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="24"/>
+      <c r="E29" s="2">
+        <v>12</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
@@ -1985,34 +1998,38 @@
       <c r="D30" s="2">
         <v>4</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="13"/>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
       </c>
       <c r="E31" s="6">
         <f>SUM(E29:E30)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2055,11 +2072,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2071,14 +2088,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2094,33 +2111,30 @@
         <v>-5</v>
       </c>
       <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3"/>
+        <v>-5</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2128,6 +2142,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Baswapuram_LabExam03Grading.xlsx
+++ b/Baswapuram_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
   <si>
     <t>Author notation</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>For compilation errors</t>
+  </si>
+  <si>
+    <t>(-1) for wrong output format in toString method</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -429,16 +441,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1517,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,14 +1535,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1574,7 +1577,9 @@
       <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1588,7 +1593,9 @@
       <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1602,7 +1609,9 @@
       <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1616,34 +1625,36 @@
       <c r="D6" s="18">
         <v>2</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="18">
+        <v>2</v>
+      </c>
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
       </c>
       <c r="E7" s="6">
         <f>SUM(E3:E6)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1676,7 +1687,9 @@
       <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1690,7 +1703,9 @@
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1704,7 +1719,9 @@
       <c r="D12" s="2">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1718,7 +1735,9 @@
       <c r="D13" s="2">
         <v>2</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1734,34 +1753,38 @@
       <c r="D14" s="18">
         <v>2</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
       </c>
       <c r="E15" s="6">
         <f>SUM(E10:E14)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1920,11 +1943,11 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
@@ -1936,14 +1959,14 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2006,11 +2029,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2022,14 +2045,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2072,11 +2095,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2088,14 +2111,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2118,23 +2141,28 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2142,11 +2170,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Baswapuram_LabExam03Grading.xlsx
+++ b/Baswapuram_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533575\Downloads\LabExam3\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>Author notation</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>(-1) for wrong output format in toString method</t>
+  </si>
+  <si>
+    <t>For incorrect logic</t>
   </si>
 </sst>
 </file>
@@ -420,6 +423,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -430,18 +445,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1520,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,14 +1538,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1631,11 +1634,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1647,14 +1650,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1761,11 +1764,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1777,14 +1780,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1875,7 +1878,9 @@
       <c r="D21" s="2">
         <v>10</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2">
+        <v>10</v>
+      </c>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1907,8 +1912,12 @@
       <c r="D23" s="2">
         <v>10</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="13"/>
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -1943,30 +1952,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2029,11 +2038,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2045,14 +2054,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2095,11 +2104,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2111,14 +2120,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2141,28 +2150,23 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2170,6 +2174,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Baswapuram_LabExam03Grading.xlsx
+++ b/Baswapuram_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Desktop\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>Author notation</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>(-1) for wrong output format in toString method</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -5 For wrong logic</t>
   </si>
 </sst>
 </file>
@@ -420,6 +423,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -430,18 +445,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1520,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,14 +1538,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1631,11 +1634,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1647,14 +1650,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1761,11 +1764,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1777,14 +1780,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1891,8 +1894,12 @@
       <c r="D22" s="2">
         <v>10</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="13"/>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
@@ -1923,8 +1930,12 @@
       <c r="D24" s="2">
         <v>10</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="13"/>
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
@@ -1943,30 +1954,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2029,11 +2040,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2045,14 +2056,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2095,11 +2106,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2111,14 +2122,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2141,28 +2152,23 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2170,6 +2176,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Baswapuram_LabExam03Grading.xlsx
+++ b/Baswapuram_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Desktop\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>Author notation</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t xml:space="preserve"> -5 For wrong logic</t>
+  </si>
+  <si>
+    <t>Incorrect logic</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -435,16 +447,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1523,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,14 +1541,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1634,11 +1637,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1650,14 +1653,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1764,11 +1767,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1780,14 +1783,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1878,7 +1881,9 @@
       <c r="D21" s="2">
         <v>10</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2">
+        <v>10</v>
+      </c>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1914,8 +1919,12 @@
       <c r="D23" s="2">
         <v>10</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="13"/>
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -1954,30 +1963,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2040,11 +2049,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2056,14 +2065,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2106,11 +2115,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2122,14 +2131,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2152,23 +2161,28 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2176,11 +2190,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Baswapuram_LabExam03Grading.xlsx
+++ b/Baswapuram_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Desktop\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>Author notation</t>
   </si>
@@ -170,10 +170,13 @@
     <t>(-1) for wrong output format in toString method</t>
   </si>
   <si>
-    <t xml:space="preserve"> -5 For wrong logic</t>
-  </si>
-  <si>
     <t>Incorrect logic</t>
+  </si>
+  <si>
+    <t>(-1) for adding brand name instead of customer name into the set</t>
+  </si>
+  <si>
+    <t>(-1) for adding product name instead of brand name into the set</t>
   </si>
 </sst>
 </file>
@@ -426,6 +429,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,18 +451,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1526,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,18 +1540,18 @@
     <col min="3" max="3" width="49.140625" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.5703125" customWidth="1"/>
+    <col min="6" max="6" width="60.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1637,11 +1640,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1653,14 +1656,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1767,11 +1770,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1783,14 +1786,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1900,10 +1903,10 @@
         <v>10</v>
       </c>
       <c r="E22" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1923,7 +1926,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1940,10 +1943,10 @@
         <v>10</v>
       </c>
       <c r="E24" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1963,30 +1966,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2049,11 +2052,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2065,14 +2068,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2115,11 +2118,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2131,14 +2134,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2161,28 +2164,23 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2190,6 +2188,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Baswapuram_LabExam03Grading.xlsx
+++ b/Baswapuram_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Desktop\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -167,9 +167,6 @@
     <t>For compilation errors</t>
   </si>
   <si>
-    <t>(-1) for wrong output format in toString method</t>
-  </si>
-  <si>
     <t>Incorrect logic</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>(-1) for adding product name instead of brand name into the set</t>
+  </si>
+  <si>
+    <t>(-0.5) for wrong  format in toString method. It should return only" "productName+"-"+productBrand" "</t>
   </si>
 </sst>
 </file>
@@ -1529,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,7 +1540,7 @@
     <col min="3" max="3" width="49.140625" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1763,10 +1763,10 @@
         <v>2</v>
       </c>
       <c r="E14" s="18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="E15" s="6">
         <f>SUM(E10:E14)</f>
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="F15" s="6"/>
     </row>
@@ -1906,7 +1906,7 @@
         <v>9</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1926,7 +1926,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1946,7 +1946,7 @@
         <v>9</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>72</v>
+        <v>72.5</v>
       </c>
       <c r="F38" s="23"/>
     </row>

--- a/Baswapuram_LabExam03Grading.xlsx
+++ b/Baswapuram_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -158,15 +158,6 @@
     <t>(-3)For not passing 3 test cases.</t>
   </si>
   <si>
-    <t>For partial scanning of data from input file</t>
-  </si>
-  <si>
-    <t>For no output</t>
-  </si>
-  <si>
-    <t>For compilation errors</t>
-  </si>
-  <si>
     <t>Incorrect logic</t>
   </si>
   <si>
@@ -177,6 +168,15 @@
   </si>
   <si>
     <t>(-0.5) for wrong  format in toString method. It should return only" "productName+"-"+productBrand" "</t>
+  </si>
+  <si>
+    <t>(-1) for not declaring customer object, (-2) for initializing customer object, (-2) for not declaring product object and (-1) for not adding them to inventory</t>
+  </si>
+  <si>
+    <t>(-4) for no output displayed due to compilation errors</t>
+  </si>
+  <si>
+    <t>(-5) For compilation errors in Driver class</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -441,16 +450,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1529,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,14 +1544,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1640,11 +1640,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1656,14 +1656,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1766,15 +1766,15 @@
         <v>1.5</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1786,14 +1786,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1906,7 +1906,7 @@
         <v>9</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1926,7 +1926,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1946,7 +1946,7 @@
         <v>9</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1966,11 +1966,11 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
@@ -1982,14 +1982,14 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2025,10 +2025,10 @@
         <v>16</v>
       </c>
       <c r="E29" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2048,34 +2048,34 @@
         <v>0</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
       </c>
       <c r="E31" s="6">
         <f>SUM(E29:E30)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2118,11 +2118,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2134,14 +2134,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2160,27 +2160,32 @@
         <v>-5</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>72.5</v>
+        <v>70.5</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2188,11 +2193,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Baswapuram_LabExam03Grading.xlsx
+++ b/Baswapuram_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533575\Downloads\LabExam3\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -167,9 +167,6 @@
     <t>For compilation errors</t>
   </si>
   <si>
-    <t>Incorrect logic</t>
-  </si>
-  <si>
     <t>(-1) for adding brand name instead of customer name into the set</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>(-0.5) for wrong  format in toString method. It should return only" "productName+"-"+productBrand" "</t>
+  </si>
+  <si>
+    <t>(-2) For not writing logic to find the unique values.(-2) for not trying to find the actual list of products.</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -441,16 +450,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1529,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,14 +1544,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1640,11 +1640,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1656,14 +1656,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1766,15 +1766,15 @@
         <v>1.5</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1786,14 +1786,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1906,7 +1906,7 @@
         <v>9</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1923,10 +1923,10 @@
         <v>10</v>
       </c>
       <c r="E23" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1946,7 +1946,7 @@
         <v>9</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1966,30 +1966,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2052,11 +2052,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2068,14 +2068,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2118,11 +2118,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2134,14 +2134,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2164,23 +2164,28 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>72.5</v>
+        <v>73.5</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2188,11 +2193,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
